--- a/spliced/falling/2023-03-25_17-58-38/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.01221730492331775</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.01935332099145098</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.003554125020111108</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.106012884151741</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-38/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0572686158120632</v>
+        <v>0.008163382383910248</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3712533414363861</v>
+        <v>-0.07067988338795567</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.058643065392971</v>
+        <v>-0.05231227912008755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1334879455918612</v>
+        <v>-0.06663984263485132</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2170098776167092</v>
+        <v>-0.06482113017277281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09671107679605455</v>
+        <v>-0.02257424863902029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.05985091050917481</v>
+        <v>-0.005289537662809526</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1304891434582799</v>
+        <v>-0.05883742868900297</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.121909264813769</v>
+        <v>0.1704730540513992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05091006410392845</v>
+        <v>0.00837163017554712</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1894376386295665</v>
+        <v>-0.05375613881783047</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5621209686452691</v>
+        <v>0.2080968008799986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0685279762203039</v>
+        <v>-0.05617183616215521</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7451306256380917</v>
+        <v>0.01428591663187196</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.788169232281768</v>
+        <v>0.0969609718092462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.745783193544906</v>
+        <v>0.0280998013913631</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.762346484444355</v>
+        <v>0.0762054398655891</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.756598580967298</v>
+        <v>-0.008552113547921099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1823294054378186</v>
+        <v>0.06225272437388239</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2232989397915999</v>
+        <v>0.09189357202161434</v>
       </c>
       <c r="C8" t="n">
-        <v>1.138486255298958</v>
+        <v>-0.06575131636451573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5607048923319088</v>
+        <v>0.04992435195229265</v>
       </c>
       <c r="B9" t="n">
-        <v>2.322676355188556</v>
+        <v>0.03760986301031981</v>
       </c>
       <c r="C9" t="n">
-        <v>2.414278323000138</v>
+        <v>-0.06972193650223989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7038278525525871</v>
+        <v>0.03176499361341648</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9540881785479458</v>
+        <v>-0.02544809200546947</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1982396515932949</v>
+        <v>0.0004164989699015492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2033903666517955</v>
+        <v>0.03686016493222929</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4635634205558086</v>
+        <v>-0.01995030405338506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1531466895883727</v>
+        <v>0.01384165091440073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.07737163657491758</v>
+        <v>0.01492454890500421</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3377668315714036</v>
+        <v>0.02186619833281094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5267046527429067</v>
+        <v>0.002901610000249519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.437226802110672</v>
+        <v>-0.02151911604133509</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.076497316360474</v>
+        <v>0.04574547572569409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305127203464508</v>
+        <v>-0.03826237769151855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3028364533727822</v>
+        <v>-0.01338350129398431</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5765596194700771</v>
+        <v>0.03186217543076381</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2633939818902439</v>
+        <v>-0.08599316531961611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.01123159040104305</v>
+        <v>0.02753058617765249</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1864527369087388</v>
+        <v>0.01243943788788525</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3065016323869878</v>
+        <v>-0.08503521572459828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1954074610363352</v>
+        <v>0.02497605843977489</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02307404306801872</v>
+        <v>0.07183220271359811</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3273265957832336</v>
+        <v>-0.08203642476688736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2357523305849597</v>
+        <v>0.02700301970947864</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05979537591338158</v>
+        <v>0.2729595926674929</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4510545784776857</v>
+        <v>-0.1162587641315027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1893821060657501</v>
+        <v>0.0572686158120632</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03949799151583152</v>
+        <v>0.3712533414363861</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3617849458347671</v>
+        <v>-0.058643065392971</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1171195276758888</v>
+        <v>-0.1334879455918612</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.02839135175401504</v>
+        <v>0.2170098776167092</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09480906345627552</v>
+        <v>0.09671107679605455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02834970165382716</v>
+        <v>-0.05985091050917481</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.09689156033776021</v>
+        <v>0.1304891434582799</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05654668266122977</v>
+        <v>-0.121909264813769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0001110661436211444</v>
+        <v>-0.05091006410392845</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.06830584168942136</v>
+        <v>0.1894376386295665</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01221730492331775</v>
+        <v>-0.5621209686452691</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0685279762203039</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.7451306256380917</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.788169232281768</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.745783193544906</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.762346484444355</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.756598580967298</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1823294054378186</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2232989397915999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.138486255298958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5607048923319088</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.322676355188556</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.414278323000138</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.7038278525525871</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.9540881785479458</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1982396515932949</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2033903666517955</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4635634205558086</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1531466895883727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.07737163657491758</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.3377668315714036</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5267046527429067</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.437226802110672</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.076497316360474</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.305127203464508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3028364533727822</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.5765596194700771</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.2633939818902439</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.01123159040104305</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1864527369087388</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3065016323869878</v>
       </c>
     </row>
   </sheetData>
